--- a/assets/xlsx/questions.xlsx
+++ b/assets/xlsx/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moaze\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AB2CC46-D942-45C8-AD76-A33405BC52BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F825E41A-9470-423D-A047-5C6411E3112D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{50390416-8299-4081-84DC-E184F6067806}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="262">
   <si>
     <t>id</t>
   </si>
@@ -48,9 +48,6 @@
     <t>answer</t>
   </si>
   <si>
-    <t xml:space="preserve">العلمي والمعلومات العامه </t>
-  </si>
-  <si>
     <t>إذا تم فصل رأس الثعبان عن جسمه، كم من الوقت يحتاج قلبه لكي يتوقف عن النبض؟</t>
   </si>
   <si>
@@ -817,6 +814,12 @@
   </si>
   <si>
     <t>نردي فورد.</t>
+  </si>
+  <si>
+    <t>العلمي</t>
+  </si>
+  <si>
+    <t>المعلومات العامة</t>
   </si>
 </sst>
 </file>
@@ -1171,7 +1174,7 @@
   <dimension ref="A1:D130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1201,13 +1204,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1215,13 +1218,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1229,13 +1232,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1243,13 +1246,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1257,13 +1260,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1271,13 +1274,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1285,13 +1288,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1299,13 +1302,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1313,13 +1316,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1327,13 +1330,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1341,13 +1344,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1355,13 +1358,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1369,13 +1372,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1383,13 +1386,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1397,13 +1400,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1411,13 +1414,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1425,13 +1428,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1439,13 +1442,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1453,13 +1456,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1467,13 +1470,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1481,13 +1484,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1495,13 +1498,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1509,13 +1512,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>260</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1523,13 +1526,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1537,13 +1540,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1551,13 +1554,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1565,13 +1568,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1579,13 +1582,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1593,13 +1596,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1607,13 +1610,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1621,13 +1624,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1635,13 +1638,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1649,13 +1652,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1663,13 +1666,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1677,13 +1680,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1691,13 +1694,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1705,13 +1708,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1719,13 +1722,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1733,13 +1736,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1747,10 +1750,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D41">
         <v>61</v>
@@ -1761,13 +1764,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1775,13 +1778,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1789,13 +1792,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1803,13 +1806,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1817,13 +1820,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1831,13 +1834,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1845,13 +1848,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
         <v>96</v>
       </c>
-      <c r="C48" t="s">
-        <v>97</v>
-      </c>
       <c r="D48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1859,13 +1862,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1873,13 +1876,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1887,13 +1890,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1901,13 +1904,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1915,13 +1918,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1929,13 +1932,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1943,13 +1946,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D55" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1957,13 +1960,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C56" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1971,13 +1974,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1985,13 +1988,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1999,13 +2002,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2013,10 +2016,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D60">
         <v>2016</v>
@@ -2027,13 +2030,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2041,13 +2044,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2055,13 +2058,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2069,13 +2072,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2083,13 +2086,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2097,13 +2100,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2111,13 +2114,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2125,13 +2128,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C68" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2139,13 +2142,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C69" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2153,10 +2156,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D70">
         <v>45</v>
@@ -2167,13 +2170,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C71" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2181,13 +2184,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C72" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2195,13 +2198,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" t="s">
         <v>145</v>
       </c>
-      <c r="C73" t="s">
-        <v>146</v>
-      </c>
       <c r="D73" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2209,13 +2212,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D74" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2223,13 +2226,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D75" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2237,13 +2240,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D76" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2251,13 +2254,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D77" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2265,13 +2268,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D78" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2279,13 +2282,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C79" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D79" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2293,13 +2296,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C80" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D80" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2307,13 +2310,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C81" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D81" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2321,13 +2324,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C82" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D82" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2335,13 +2338,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C83" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2349,13 +2352,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2363,13 +2366,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C85" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2377,13 +2380,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C86" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D86" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2391,13 +2394,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C87" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D87" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2405,13 +2408,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C88" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D88" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2419,13 +2422,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D89" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2433,13 +2436,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C90" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D90" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2447,13 +2450,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C91" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D91" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2461,13 +2464,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C92" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D92" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2475,13 +2478,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C93" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D93" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2489,13 +2492,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C94" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D94" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2503,13 +2506,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C95" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D95" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2517,13 +2520,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C96" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D96" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2531,13 +2534,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C97" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D97" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2545,13 +2548,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" t="s">
         <v>196</v>
       </c>
-      <c r="C98" t="s">
-        <v>197</v>
-      </c>
       <c r="D98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2559,13 +2562,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C99" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D99" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2573,10 +2576,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C100" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D100">
         <v>1945</v>
@@ -2587,13 +2590,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C101" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D101" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2601,10 +2604,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C102" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D102">
         <v>8</v>
@@ -2615,13 +2618,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C103" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D103" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2629,13 +2632,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C104" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D104" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2643,13 +2646,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D105" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2657,13 +2660,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C106" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D106" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2671,13 +2674,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C107" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D107" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2685,13 +2688,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C108" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D108" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2699,13 +2702,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C109" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D109" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2713,13 +2716,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C110" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D110" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2727,13 +2730,13 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C111" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D111" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2741,13 +2744,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C112" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D112" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2755,13 +2758,13 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C113" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D113" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2769,13 +2772,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C114" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D114" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2783,13 +2786,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C115" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D115" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2797,13 +2800,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C116" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D116" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2811,13 +2814,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C117" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D117" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2825,13 +2828,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C118" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D118" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2839,13 +2842,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C119" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D119" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2853,13 +2856,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C120" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D120" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2867,13 +2870,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C121" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D121" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2881,13 +2884,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C122" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D122" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2895,13 +2898,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C123" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D123" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2909,13 +2912,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C124" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D124" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2923,13 +2926,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C125" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D125" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2937,13 +2940,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C126" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D126" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2951,13 +2954,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C127" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D127" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2965,13 +2968,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C128" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D128" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -2979,13 +2982,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C129" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D129" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2993,13 +2996,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C130" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D130" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/assets/xlsx/questions.xlsx
+++ b/assets/xlsx/questions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moaze\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moaze\Desktop\cultural_contest\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F825E41A-9470-423D-A047-5C6411E3112D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58410706-328F-443C-84E8-351F127C098E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{50390416-8299-4081-84DC-E184F6067806}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="341">
   <si>
     <t>id</t>
   </si>
@@ -321,9 +321,6 @@
     <t>ليس للقطار الكهربائي دخان</t>
   </si>
   <si>
-    <t>الرياضيه</t>
-  </si>
-  <si>
     <t>ما هو ذلك الفريق الذي استطاع أن يفوز بأول بطولة لكأس العالم لمرتين على التوالي؟</t>
   </si>
   <si>
@@ -360,9 +357,6 @@
     <t> أي فريق برتغالي لعب له رونالدو قبل التوقيع مع مانشستر يونايتد؟</t>
   </si>
   <si>
-    <t>قاعد ميسي بشكل مشهور من الواجب الدولي في أي عام قبل عكس قراره؟</t>
-  </si>
-  <si>
     <t>ارتدى ميسي الرقم 30 في بداية مسيرته مع برشلونة وهو الآن رقم 10. ما هو الرقم الآخر الذي ارتداه للنادي؟</t>
   </si>
   <si>
@@ -468,9 +462,6 @@
     <t> فيف ريتشاردز</t>
   </si>
   <si>
-    <t>الفنيه</t>
-  </si>
-  <si>
     <t>ما هي الفروع الثلاثة الكلاسيكية للفن؟</t>
   </si>
   <si>
@@ -621,9 +612,6 @@
     <t>لأن لونه أحمر ، وأقيم على تربة حمراء .</t>
   </si>
   <si>
-    <t>التاريخيه</t>
-  </si>
-  <si>
     <t>ما هي أقصر حرب في تاريخ البشرية؟</t>
   </si>
   <si>
@@ -816,10 +804,259 @@
     <t>نردي فورد.</t>
   </si>
   <si>
-    <t>العلمي</t>
-  </si>
-  <si>
-    <t>المعلومات العامة</t>
+    <t>كم عدد العضلات التي يملكها الجراد؟</t>
+  </si>
+  <si>
+    <t>كم عدد خلابا الدم التي يتمكن الجسم من إنتاجها في 24 ساعة؟</t>
+  </si>
+  <si>
+    <t>من هي الملكة التي ساعدت كولمبس على اكتشاف الولايات الأمريكية؟ </t>
+  </si>
+  <si>
+    <t>ما هي أهم وأقوى أنواع الحجارة؟</t>
+  </si>
+  <si>
+    <t>ما هي أسرع الأسماك؟</t>
+  </si>
+  <si>
+    <t>ما هو البحر الفاصل بين كلاً من تركيا واليونان؟</t>
+  </si>
+  <si>
+    <t>من هو القائد الذي حقق انتصاراً عظيماً على المغول؟</t>
+  </si>
+  <si>
+    <t>من الذي قتل كليبر قائد الحملة الفرنسية؟</t>
+  </si>
+  <si>
+    <t>من هو صاحب تمثال أبو الهول؟</t>
+  </si>
+  <si>
+    <t>ما هو الاسم الذي يطلق على المنطقة التي تصدر البترول؟</t>
+  </si>
+  <si>
+    <t>من هو أول من استخدم الشوكة أثناء تناول الطعام؟</t>
+  </si>
+  <si>
+    <t>ما هو طول الأمعاء بداخل جسم الإنسان؟</t>
+  </si>
+  <si>
+    <t>ما هي ثاني أكبر دول العالم من حيث المساحة؟</t>
+  </si>
+  <si>
+    <t>ما هي الدولة التي جاهدت كثيراً من أجل أن تحصل على الاستقلال؟</t>
+  </si>
+  <si>
+    <t>ما هو الشيء الذي لا يملك عين ولكن يرى الشخص الذي يقف أمامه؟</t>
+  </si>
+  <si>
+    <t>ما هو الشيء الذي يبتلعه الإنسان كما أنه يبتلعه أيضاً؟</t>
+  </si>
+  <si>
+    <t>ما هو الشيء الذي يمشي على الرغم من عدم وجود أرجل؟</t>
+  </si>
+  <si>
+    <t>ما هو الشخص الذي قتل ربع سكان العالم؟</t>
+  </si>
+  <si>
+    <t>ما هو الشيء الموجود في الشتاء خمسة بينما في الصيف ثلاثة؟</t>
+  </si>
+  <si>
+    <t>ما هو الشيء الذي لا يبتل حتى ولو دخل الماء؟</t>
+  </si>
+  <si>
+    <t>ما هو السؤال الذي تكون دائما إجابته مختلفة؟</t>
+  </si>
+  <si>
+    <t>ما الشيء الذي إذا أكلته كاملًا تستفيد منه ولكن إذا أكلت نصفه تموت؟</t>
+  </si>
+  <si>
+    <t>أكلت فلـفـل فتـفلـفل فـمي. كم فاء في ذلك؟</t>
+  </si>
+  <si>
+    <t>هل تعرف اسم الشهر الذي لو حذفت أول حرف منه أصبح اسم فاكهة؟</t>
+  </si>
+  <si>
+    <t>ما هو الشي الذي يتكلم جميع لغات العالم؟</t>
+  </si>
+  <si>
+    <t>هل تعرف الكلمة التي ينطقها جميع سكان الأرض بنفس اللفظ رغم اختلاف اللغات؟</t>
+  </si>
+  <si>
+    <t>900 عضلة.</t>
+  </si>
+  <si>
+    <t>200 مليون خلية دم.</t>
+  </si>
+  <si>
+    <t>الملكة الإسبانية إيزابيلا الأولى</t>
+  </si>
+  <si>
+    <t>حجر الألماس.</t>
+  </si>
+  <si>
+    <t>سمك التونة.</t>
+  </si>
+  <si>
+    <t>بحر إيجه.</t>
+  </si>
+  <si>
+    <t>سيف الدين قطز.</t>
+  </si>
+  <si>
+    <t>سليمان الحلبي وهو طالب سوري.</t>
+  </si>
+  <si>
+    <t>الملك خفرع.</t>
+  </si>
+  <si>
+    <t>أوبك.</t>
+  </si>
+  <si>
+    <t>الملك هنري حاكم فرنسا.</t>
+  </si>
+  <si>
+    <t>يتراوح طولها من 4.6 متر حتى 9.8 متر.</t>
+  </si>
+  <si>
+    <t>دولة كندا.</t>
+  </si>
+  <si>
+    <t>دولة موزمبيق وحصلت على استقلالها من البرتغال في عام 1975م.</t>
+  </si>
+  <si>
+    <t>المرآة</t>
+  </si>
+  <si>
+    <t>الماء</t>
+  </si>
+  <si>
+    <t>الصوت.</t>
+  </si>
+  <si>
+    <t>قابيل الذي قتل هابيل، لأنه في هذا الوقت كان عدد السكان على الأرض أربع أشخاص فقط.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> النقاط.</t>
+  </si>
+  <si>
+    <t>الضوء.</t>
+  </si>
+  <si>
+    <t> كم الساعة.</t>
+  </si>
+  <si>
+    <t> السمسم.</t>
+  </si>
+  <si>
+    <t>لا يوجد اي فاء في كلمة ذلك.</t>
+  </si>
+  <si>
+    <t>شهر تموز</t>
+  </si>
+  <si>
+    <t> صدى الصوت.</t>
+  </si>
+  <si>
+    <t> ألو التي يرد بها على التليفون.</t>
+  </si>
+  <si>
+    <t>العلمية</t>
+  </si>
+  <si>
+    <t>العامة</t>
+  </si>
+  <si>
+    <t>الرياضية</t>
+  </si>
+  <si>
+    <t>الفنية</t>
+  </si>
+  <si>
+    <t>التاريخية</t>
+  </si>
+  <si>
+    <t>الإضافية</t>
+  </si>
+  <si>
+    <t>ﻛﻢ ﻋﺪد ﻻﻋﺒﻲ فريق اﻟبيسبول؟</t>
+  </si>
+  <si>
+    <t>ﻛﻢ ﻋﺪد ﻻﻋﺒﻲ فريق كره الماء؟</t>
+  </si>
+  <si>
+    <t>ما هي اقدم رﻳﺎﺿﺔ ﻋﺮﻓﻬﺎ الانسان؟</t>
+  </si>
+  <si>
+    <t>ما هي اقدم انواع السباحه ؟</t>
+  </si>
+  <si>
+    <t>عدد لاعبي فريق هوكي الجليد؟</t>
+  </si>
+  <si>
+    <t>كم يبلغ طول مضمار سباقات العاب القوي؟</t>
+  </si>
+  <si>
+    <t>في أي دولة ﻳﻮﺟﺪ ﻣﻘﺮ الاتحاد اﻟﻌﺮﺑﻲ لألعاب القوي؟</t>
+  </si>
+  <si>
+    <t>ﻣﻦ هى أول لاعبة عرﺑﯿﺔ تفوز بميداليه  ﻓﻲ الاوليمبياد؟</t>
+  </si>
+  <si>
+    <t>ﻣﻦ هو العداء اﻟﻤﻐﺮﺑﻲ صاحب الرقم القياسي العالمى ﻓﻲ ﻣﺴﺎﻓﺔ 1500 ﻣﺘﺮ؟</t>
+  </si>
+  <si>
+    <t>في أي دولة بدأت رياضة الملاكمة؟</t>
+  </si>
+  <si>
+    <t>في أي رياضة يقدم كأس ديفيس؟</t>
+  </si>
+  <si>
+    <t>في أى رياضة حصلت مصرعلى الميدالية الذهبية في أوليمبياد لندن عام 1943 م عن طريق البطل محمود فياض؟</t>
+  </si>
+  <si>
+    <t>من هي أول سيدة عربية تتولى مهمة تدريب فريق كرة قدم رجال؟</t>
+  </si>
+  <si>
+    <t>٩ لاعبين</t>
+  </si>
+  <si>
+    <t>٧ ﻻﻋﺒﯿﻦ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ﺷﺪ الحبل </t>
+  </si>
+  <si>
+    <t xml:space="preserve">الصدر </t>
+  </si>
+  <si>
+    <t>٦ لاعبين</t>
+  </si>
+  <si>
+    <t>يجب ألا يقل عن ٤٠٠ ﻣﺘﺮ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">السعوديه </t>
+  </si>
+  <si>
+    <t>نوال اﻟﻤﺘﻮﻛﻞ وفازت بذهبية سباق ٤٠٠ م حواجز</t>
+  </si>
+  <si>
+    <t>هشام الكروج</t>
+  </si>
+  <si>
+    <t>اليونان</t>
+  </si>
+  <si>
+    <t>كره المضرب</t>
+  </si>
+  <si>
+    <t>رفع الاثقال</t>
+  </si>
+  <si>
+    <t>السودانية سلمى الماجدي</t>
+  </si>
+  <si>
+    <t>تقاعد ميسي بشكل مشهور من الواجب الدولي في أي عام قبل عكس قراره؟</t>
   </si>
 </sst>
 </file>
@@ -1171,18 +1408,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5F8F04-B8D6-4B0D-B8B5-7E274EC30C28}">
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="92.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1204,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -1218,7 +1455,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1232,7 +1469,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1246,7 +1483,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -1260,7 +1497,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1274,7 +1511,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -1288,7 +1525,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -1302,7 +1539,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1316,7 +1553,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -1330,7 +1567,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -1344,7 +1581,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1358,7 +1595,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -1372,7 +1609,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -1386,7 +1623,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -1400,7 +1637,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -1414,7 +1651,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -1428,7 +1665,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
@@ -1442,7 +1679,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -1456,7 +1693,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
@@ -1470,7 +1707,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -1484,7 +1721,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
@@ -1498,7 +1735,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -1512,7 +1749,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="C24" t="s">
         <v>26</v>
@@ -1526,7 +1763,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -1540,7 +1777,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -1554,7 +1791,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
@@ -1568,7 +1805,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="C28" t="s">
         <v>30</v>
@@ -1582,7 +1819,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
@@ -1596,7 +1833,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
@@ -1610,7 +1847,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
@@ -1624,7 +1861,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="C32" t="s">
         <v>34</v>
@@ -1638,7 +1875,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
@@ -1652,7 +1889,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
@@ -1666,7 +1903,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="C35" t="s">
         <v>37</v>
@@ -1680,7 +1917,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="C36" t="s">
         <v>38</v>
@@ -1694,7 +1931,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="C37" t="s">
         <v>39</v>
@@ -1708,7 +1945,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="C38" t="s">
         <v>40</v>
@@ -1722,7 +1959,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="C39" t="s">
         <v>41</v>
@@ -1736,7 +1973,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="C40" t="s">
         <v>42</v>
@@ -1750,7 +1987,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="C41" t="s">
         <v>43</v>
@@ -1764,7 +2001,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="C42" t="s">
         <v>44</v>
@@ -1778,7 +2015,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="C43" t="s">
         <v>45</v>
@@ -1792,7 +2029,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="C44" t="s">
         <v>46</v>
@@ -1806,7 +2043,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="C45" t="s">
         <v>47</v>
@@ -1820,7 +2057,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="C46" t="s">
         <v>48</v>
@@ -1834,7 +2071,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="C47" t="s">
         <v>49</v>
@@ -1848,13 +2085,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
+        <v>310</v>
+      </c>
+      <c r="C48" t="s">
         <v>95</v>
       </c>
-      <c r="C48" t="s">
-        <v>96</v>
-      </c>
       <c r="D48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1862,13 +2099,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1876,13 +2113,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D50" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1890,13 +2127,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1904,13 +2141,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="C52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D52" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1918,13 +2155,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D53" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1932,13 +2169,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D54" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1946,13 +2183,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D55" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1960,13 +2197,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="C56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D56" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1974,13 +2211,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="C57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D57" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1988,13 +2225,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="C58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D58" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2002,13 +2239,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D59" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2016,10 +2253,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="C60" t="s">
-        <v>108</v>
+        <v>340</v>
       </c>
       <c r="D60">
         <v>2016</v>
@@ -2030,13 +2267,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="C61" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D61" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2044,13 +2281,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="C62" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D62" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2058,13 +2295,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="C63" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D63" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2072,13 +2309,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="C64" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D64" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2086,13 +2323,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="C65" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2100,13 +2337,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="C66" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D66" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2114,13 +2351,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="C67" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D67" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2128,13 +2365,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="C68" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D68" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2142,13 +2379,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="C69" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D69" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2156,10 +2393,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="C70" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D70">
         <v>45</v>
@@ -2170,13 +2407,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="C71" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2184,13 +2421,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>95</v>
+        <v>310</v>
       </c>
       <c r="C72" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2198,13 +2435,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="C73" t="s">
-        <v>145</v>
+        <v>314</v>
       </c>
       <c r="D73" t="s">
-        <v>170</v>
+        <v>327</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2212,13 +2449,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="C74" t="s">
-        <v>146</v>
+        <v>315</v>
       </c>
       <c r="D74" t="s">
-        <v>171</v>
+        <v>328</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2226,13 +2463,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="C75" t="s">
-        <v>147</v>
+        <v>316</v>
       </c>
       <c r="D75" t="s">
-        <v>172</v>
+        <v>329</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2240,13 +2477,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="C76" t="s">
-        <v>148</v>
+        <v>317</v>
       </c>
       <c r="D76" t="s">
-        <v>173</v>
+        <v>330</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2254,13 +2491,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="C77" t="s">
-        <v>149</v>
+        <v>318</v>
       </c>
       <c r="D77" t="s">
-        <v>174</v>
+        <v>331</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2268,13 +2505,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="C78" t="s">
-        <v>150</v>
+        <v>319</v>
       </c>
       <c r="D78" t="s">
-        <v>175</v>
+        <v>332</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2282,13 +2519,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="C79" t="s">
-        <v>151</v>
+        <v>320</v>
       </c>
       <c r="D79" t="s">
-        <v>176</v>
+        <v>333</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2296,13 +2533,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="C80" t="s">
-        <v>152</v>
+        <v>321</v>
       </c>
       <c r="D80" t="s">
-        <v>177</v>
+        <v>334</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2310,13 +2547,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="C81" t="s">
-        <v>153</v>
+        <v>322</v>
       </c>
       <c r="D81" t="s">
-        <v>178</v>
+        <v>335</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2324,13 +2561,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="C82" t="s">
-        <v>154</v>
+        <v>323</v>
       </c>
       <c r="D82" t="s">
-        <v>179</v>
+        <v>336</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2338,13 +2575,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="C83" t="s">
-        <v>155</v>
+        <v>324</v>
       </c>
       <c r="D83" t="s">
-        <v>180</v>
+        <v>337</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2352,13 +2589,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="C84" t="s">
-        <v>156</v>
+        <v>325</v>
       </c>
       <c r="D84" t="s">
-        <v>181</v>
+        <v>338</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2366,13 +2603,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="C85" t="s">
-        <v>157</v>
+        <v>326</v>
       </c>
       <c r="D85" t="s">
-        <v>182</v>
+        <v>339</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2380,13 +2617,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>144</v>
+        <v>311</v>
       </c>
       <c r="C86" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D86" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2394,13 +2631,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>144</v>
+        <v>311</v>
       </c>
       <c r="C87" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D87" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2408,13 +2645,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>311</v>
+      </c>
+      <c r="C88" t="s">
         <v>144</v>
       </c>
-      <c r="C88" t="s">
-        <v>160</v>
-      </c>
       <c r="D88" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2422,13 +2659,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>144</v>
+        <v>311</v>
       </c>
       <c r="C89" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D89" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2436,13 +2673,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>144</v>
+        <v>311</v>
       </c>
       <c r="C90" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="D90" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2450,13 +2687,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>144</v>
+        <v>311</v>
       </c>
       <c r="C91" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D91" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2464,13 +2701,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>144</v>
+        <v>311</v>
       </c>
       <c r="C92" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D92" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2478,13 +2715,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>144</v>
+        <v>311</v>
       </c>
       <c r="C93" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="D93" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2492,13 +2729,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>144</v>
+        <v>311</v>
       </c>
       <c r="C94" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="D94" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2506,13 +2743,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>144</v>
+        <v>311</v>
       </c>
       <c r="C95" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D95" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2520,13 +2757,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>144</v>
+        <v>311</v>
       </c>
       <c r="C96" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D96" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2534,13 +2771,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>144</v>
+        <v>311</v>
       </c>
       <c r="C97" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D97" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2548,13 +2785,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>195</v>
+        <v>311</v>
       </c>
       <c r="C98" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="D98" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2562,13 +2799,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>195</v>
+        <v>311</v>
       </c>
       <c r="C99" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="D99" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2576,13 +2813,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>195</v>
+        <v>311</v>
       </c>
       <c r="C100" t="s">
-        <v>198</v>
-      </c>
-      <c r="D100">
-        <v>1945</v>
+        <v>156</v>
+      </c>
+      <c r="D100" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -2590,13 +2827,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>195</v>
+        <v>311</v>
       </c>
       <c r="C101" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="D101" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -2604,13 +2841,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>195</v>
+        <v>311</v>
       </c>
       <c r="C102" t="s">
-        <v>200</v>
-      </c>
-      <c r="D102">
-        <v>8</v>
+        <v>158</v>
+      </c>
+      <c r="D102" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2618,13 +2855,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>195</v>
+        <v>311</v>
       </c>
       <c r="C103" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="D103" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -2632,13 +2869,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>195</v>
+        <v>311</v>
       </c>
       <c r="C104" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="D104" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2646,13 +2883,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>195</v>
+        <v>311</v>
       </c>
       <c r="C105" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="D105" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2660,13 +2897,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>195</v>
+        <v>311</v>
       </c>
       <c r="C106" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="D106" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -2674,13 +2911,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>195</v>
+        <v>311</v>
       </c>
       <c r="C107" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="D107" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -2688,13 +2925,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>195</v>
+        <v>311</v>
       </c>
       <c r="C108" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="D108" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2702,13 +2939,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>195</v>
+        <v>311</v>
       </c>
       <c r="C109" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="D109" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -2716,13 +2953,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>195</v>
+        <v>311</v>
       </c>
       <c r="C110" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="D110" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2730,13 +2967,13 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="C111" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="D111" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -2744,13 +2981,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="C112" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="D112" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -2758,13 +2995,13 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="C113" t="s">
-        <v>211</v>
-      </c>
-      <c r="D113" t="s">
-        <v>242</v>
+        <v>194</v>
+      </c>
+      <c r="D113">
+        <v>1945</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2772,13 +3009,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>312</v>
+      </c>
+      <c r="C114" t="s">
         <v>195</v>
       </c>
-      <c r="C114" t="s">
-        <v>212</v>
-      </c>
       <c r="D114" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2786,13 +3023,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="C115" t="s">
-        <v>213</v>
-      </c>
-      <c r="D115" t="s">
-        <v>244</v>
+        <v>196</v>
+      </c>
+      <c r="D115">
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -2800,13 +3037,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="C116" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="D116" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2814,13 +3051,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="C117" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="D117" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2828,13 +3065,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="C118" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="D118" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2842,13 +3079,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="C119" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D119" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -2856,13 +3093,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="C120" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="D120" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2870,13 +3107,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="C121" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="D121" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -2884,13 +3121,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="C122" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="D122" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -2898,13 +3135,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="C123" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="D123" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -2912,13 +3149,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="C124" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="D124" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2926,13 +3163,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="C125" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="D125" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -2940,13 +3177,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="C126" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="D126" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2954,13 +3191,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="C127" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="D127" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -2968,13 +3205,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="C128" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="D128" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -2982,13 +3219,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="C129" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="D129" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -2996,13 +3233,559 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>195</v>
+        <v>312</v>
       </c>
       <c r="C130" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="D130" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>312</v>
+      </c>
+      <c r="C131" t="s">
+        <v>212</v>
+      </c>
+      <c r="D131" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>312</v>
+      </c>
+      <c r="C132" t="s">
+        <v>213</v>
+      </c>
+      <c r="D132" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>312</v>
+      </c>
+      <c r="C133" t="s">
+        <v>214</v>
+      </c>
+      <c r="D133" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>312</v>
+      </c>
+      <c r="C134" t="s">
+        <v>215</v>
+      </c>
+      <c r="D134" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>312</v>
+      </c>
+      <c r="C135" t="s">
+        <v>216</v>
+      </c>
+      <c r="D135" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>312</v>
+      </c>
+      <c r="C136" t="s">
+        <v>217</v>
+      </c>
+      <c r="D136" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>312</v>
+      </c>
+      <c r="C137" t="s">
+        <v>218</v>
+      </c>
+      <c r="D137" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>312</v>
+      </c>
+      <c r="C138" t="s">
+        <v>219</v>
+      </c>
+      <c r="D138" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>312</v>
+      </c>
+      <c r="C139" t="s">
+        <v>220</v>
+      </c>
+      <c r="D139" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>312</v>
+      </c>
+      <c r="C140" t="s">
+        <v>221</v>
+      </c>
+      <c r="D140" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>312</v>
+      </c>
+      <c r="C141" t="s">
+        <v>222</v>
+      </c>
+      <c r="D141" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>312</v>
+      </c>
+      <c r="C142" t="s">
+        <v>223</v>
+      </c>
+      <c r="D142" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>312</v>
+      </c>
+      <c r="C143" t="s">
+        <v>224</v>
+      </c>
+      <c r="D143" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>313</v>
+      </c>
+      <c r="C144" t="s">
+        <v>256</v>
+      </c>
+      <c r="D144" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>313</v>
+      </c>
+      <c r="C145" t="s">
+        <v>257</v>
+      </c>
+      <c r="D145" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>313</v>
+      </c>
+      <c r="C146" t="s">
+        <v>258</v>
+      </c>
+      <c r="D146" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>313</v>
+      </c>
+      <c r="C147" t="s">
         <v>259</v>
+      </c>
+      <c r="D147" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>313</v>
+      </c>
+      <c r="C148" t="s">
+        <v>260</v>
+      </c>
+      <c r="D148" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>313</v>
+      </c>
+      <c r="C149" t="s">
+        <v>261</v>
+      </c>
+      <c r="D149" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>313</v>
+      </c>
+      <c r="C150" t="s">
+        <v>262</v>
+      </c>
+      <c r="D150" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>313</v>
+      </c>
+      <c r="C151" t="s">
+        <v>263</v>
+      </c>
+      <c r="D151" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>313</v>
+      </c>
+      <c r="C152" t="s">
+        <v>264</v>
+      </c>
+      <c r="D152" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>313</v>
+      </c>
+      <c r="C153" t="s">
+        <v>265</v>
+      </c>
+      <c r="D153" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>313</v>
+      </c>
+      <c r="C154" t="s">
+        <v>266</v>
+      </c>
+      <c r="D154" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>313</v>
+      </c>
+      <c r="C155" t="s">
+        <v>267</v>
+      </c>
+      <c r="D155" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>313</v>
+      </c>
+      <c r="C156" t="s">
+        <v>268</v>
+      </c>
+      <c r="D156" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>313</v>
+      </c>
+      <c r="C157" t="s">
+        <v>269</v>
+      </c>
+      <c r="D157" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>313</v>
+      </c>
+      <c r="C158" t="s">
+        <v>270</v>
+      </c>
+      <c r="D158" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>313</v>
+      </c>
+      <c r="C159" t="s">
+        <v>271</v>
+      </c>
+      <c r="D159" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>313</v>
+      </c>
+      <c r="C160" t="s">
+        <v>272</v>
+      </c>
+      <c r="D160" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>313</v>
+      </c>
+      <c r="C161" t="s">
+        <v>273</v>
+      </c>
+      <c r="D161" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>313</v>
+      </c>
+      <c r="C162" t="s">
+        <v>274</v>
+      </c>
+      <c r="D162" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>313</v>
+      </c>
+      <c r="C163" t="s">
+        <v>275</v>
+      </c>
+      <c r="D163" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>313</v>
+      </c>
+      <c r="C164" t="s">
+        <v>276</v>
+      </c>
+      <c r="D164" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>313</v>
+      </c>
+      <c r="C165" t="s">
+        <v>277</v>
+      </c>
+      <c r="D165" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>313</v>
+      </c>
+      <c r="C166" t="s">
+        <v>278</v>
+      </c>
+      <c r="D166" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>313</v>
+      </c>
+      <c r="C167" t="s">
+        <v>279</v>
+      </c>
+      <c r="D167" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>313</v>
+      </c>
+      <c r="C168" t="s">
+        <v>280</v>
+      </c>
+      <c r="D168" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>313</v>
+      </c>
+      <c r="C169" t="s">
+        <v>281</v>
+      </c>
+      <c r="D169" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
